--- a/py/com/tables/xl.xlsx
+++ b/py/com/tables/xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\py\com\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F020A50-AB46-461E-B257-FA084534ADE3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732151ED-D7D8-4474-86F7-3E9C8A331859}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
